--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -1493,7 +1493,7 @@
   <dimension ref="B1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
